--- a/docs/CareConnect-Composition-1.xlsx
+++ b/docs/CareConnect-Composition-1.xlsx
@@ -1424,11 +1424,11 @@
     <col min="2" max="2" width="24.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1441,19 +1441,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="44.18359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Composition-1.xlsx
+++ b/docs/CareConnect-Composition-1.xlsx
@@ -1424,11 +1424,11 @@
     <col min="2" max="2" width="24.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1441,19 +1441,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="44.18359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Composition-1.xlsx
+++ b/docs/CareConnect-Composition-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="407">
   <si>
     <t>Path</t>
   </si>
@@ -338,6 +338,17 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-CareSettingType-1}
 </t>
+  </si>
+  <si>
+    <t>An extension to carry the Care setting type of the document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -2464,7 +2475,7 @@
         <v>102</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>97</v>
@@ -2527,10 +2538,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>39</v>
@@ -2544,11 +2555,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2570,13 +2581,13 @@
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2626,7 +2637,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -2652,7 +2663,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2675,16 +2686,16 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2734,7 +2745,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2749,18 +2760,18 @@
         <v>39</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2783,13 +2794,13 @@
         <v>39</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2840,7 +2851,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2855,7 +2866,7 @@
         <v>39</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>39</v>
@@ -2866,11 +2877,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2892,13 +2903,13 @@
         <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2939,7 +2950,7 @@
         <v>98</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>39</v>
@@ -2948,7 +2959,7 @@
         <v>99</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2963,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>39</v>
@@ -2974,7 +2985,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3000,16 +3011,16 @@
         <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>39</v>
@@ -3034,13 +3045,13 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -3058,7 +3069,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -3073,7 +3084,7 @@
         <v>39</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>39</v>
@@ -3084,7 +3095,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3107,19 +3118,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>39</v>
@@ -3147,10 +3158,10 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>39</v>
@@ -3168,7 +3179,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -3183,7 +3194,7 @@
         <v>39</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>39</v>
@@ -3194,7 +3205,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3220,14 +3231,14 @@
         <v>63</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -3240,7 +3251,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>39</v>
@@ -3276,7 +3287,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -3291,7 +3302,7 @@
         <v>39</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>39</v>
@@ -3302,7 +3313,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3325,16 +3336,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3348,7 +3359,7 @@
         <v>39</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>39</v>
@@ -3384,7 +3395,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -3399,7 +3410,7 @@
         <v>39</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>39</v>
@@ -3410,7 +3421,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3433,13 +3444,13 @@
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3490,7 +3501,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3505,7 +3516,7 @@
         <v>39</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>39</v>
@@ -3516,7 +3527,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3539,16 +3550,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3598,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3613,7 +3624,7 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>39</v>
@@ -3624,7 +3635,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3650,16 +3661,16 @@
         <v>69</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3684,13 +3695,13 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>39</v>
@@ -3708,7 +3719,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>50</v>
@@ -3723,18 +3734,18 @@
         <v>39</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3757,19 +3768,19 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
@@ -3794,13 +3805,13 @@
         <v>39</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>39</v>
@@ -3818,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -3833,18 +3844,18 @@
         <v>39</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3867,19 +3878,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -3904,13 +3915,13 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
@@ -3928,7 +3939,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>40</v>
@@ -3943,18 +3954,18 @@
         <v>39</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3977,19 +3988,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -4038,7 +4049,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -4053,18 +4064,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4087,17 +4098,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -4146,7 +4157,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4161,18 +4172,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4195,19 +4206,19 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4256,7 +4267,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>50</v>
@@ -4271,18 +4282,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4305,17 +4316,17 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4364,7 +4375,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4379,18 +4390,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4413,16 +4424,16 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4472,7 +4483,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4487,10 +4498,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4498,7 +4509,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4524,13 +4535,13 @@
         <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4556,13 +4567,13 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4580,7 +4591,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4595,10 +4606,10 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4606,7 +4617,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4629,19 +4640,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4690,7 +4701,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4702,13 +4713,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4716,7 +4727,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4739,13 +4750,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4796,7 +4807,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4811,7 +4822,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -4822,11 +4833,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4848,13 +4859,13 @@
         <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4904,7 +4915,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4919,7 +4930,7 @@
         <v>39</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>39</v>
@@ -4930,11 +4941,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4956,13 +4967,13 @@
         <v>95</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5012,7 +5023,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5038,7 +5049,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5064,16 +5075,16 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>39</v>
@@ -5098,13 +5109,13 @@
         <v>39</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>39</v>
@@ -5122,7 +5133,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5137,10 +5148,10 @@
         <v>39</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>39</v>
@@ -5148,7 +5159,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5171,17 +5182,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5230,7 +5241,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -5245,10 +5256,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5256,7 +5267,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5279,17 +5290,17 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5338,7 +5349,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5353,18 +5364,18 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5387,19 +5398,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5448,7 +5459,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5463,10 +5474,10 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>39</v>
@@ -5474,7 +5485,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5497,16 +5508,16 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5556,7 +5567,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5568,13 +5579,13 @@
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5582,7 +5593,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5605,13 +5616,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5662,7 +5673,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5677,7 +5688,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5688,11 +5699,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5714,13 +5725,13 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5770,7 +5781,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5785,7 +5796,7 @@
         <v>39</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>39</v>
@@ -5796,11 +5807,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5822,13 +5833,13 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -5878,7 +5889,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5904,7 +5915,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5930,13 +5941,13 @@
         <v>69</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -5962,13 +5973,13 @@
         <v>39</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>39</v>
@@ -5986,7 +5997,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>50</v>
@@ -6001,10 +6012,10 @@
         <v>39</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>39</v>
@@ -6012,7 +6023,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6035,13 +6046,13 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6092,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6107,10 +6118,10 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6118,7 +6129,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6141,19 +6152,19 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6202,7 +6213,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6214,13 +6225,13 @@
         <v>39</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6228,7 +6239,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6251,13 +6262,13 @@
         <v>39</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6308,7 +6319,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6323,7 +6334,7 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>39</v>
@@ -6334,11 +6345,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6360,13 +6371,13 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6416,7 +6427,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6431,7 +6442,7 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>39</v>
@@ -6442,11 +6453,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6468,13 +6479,13 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6524,7 +6535,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6550,7 +6561,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6573,16 +6584,16 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6608,13 +6619,13 @@
         <v>39</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>39</v>
@@ -6632,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6647,10 +6658,10 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>39</v>
@@ -6658,7 +6669,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6681,13 +6692,13 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6738,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6753,10 +6764,10 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>39</v>
@@ -6764,7 +6775,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6787,13 +6798,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6844,7 +6855,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6859,10 +6870,10 @@
         <v>39</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>39</v>
@@ -6870,7 +6881,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6893,13 +6904,13 @@
         <v>39</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6950,7 +6961,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6962,13 +6973,13 @@
         <v>39</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -6976,7 +6987,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6999,13 +7010,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7056,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7071,7 +7082,7 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>39</v>
@@ -7082,11 +7093,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7108,13 +7119,13 @@
         <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7164,7 +7175,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7179,7 +7190,7 @@
         <v>39</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>39</v>
@@ -7190,11 +7201,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7216,13 +7227,13 @@
         <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7272,7 +7283,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7298,11 +7309,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7321,19 +7332,19 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>39</v>
@@ -7382,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7397,10 +7408,10 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>39</v>
@@ -7408,7 +7419,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7431,19 +7442,19 @@
         <v>39</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>39</v>
@@ -7468,11 +7479,11 @@
         <v>39</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>39</v>
@@ -7490,7 +7501,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7505,10 +7516,10 @@
         <v>39</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>39</v>
@@ -7516,7 +7527,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7542,13 +7553,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7598,7 +7609,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7607,16 +7618,16 @@
         <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7624,7 +7635,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7650,16 +7661,16 @@
         <v>69</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
@@ -7684,13 +7695,13 @@
         <v>39</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7708,7 +7719,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7723,18 +7734,18 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7757,19 +7768,19 @@
         <v>39</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>39</v>
@@ -7794,13 +7805,13 @@
         <v>39</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>39</v>
@@ -7818,7 +7829,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7833,10 +7844,10 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7844,7 +7855,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7867,16 +7878,16 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7926,7 +7937,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7935,16 +7946,16 @@
         <v>41</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -7952,7 +7963,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7975,19 +7986,19 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8012,13 +8023,13 @@
         <v>39</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -8036,25 +8047,25 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="AI61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>39</v>
@@ -8062,7 +8073,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8088,13 +8099,13 @@
         <v>39</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8144,7 +8155,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8153,16 +8164,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>

--- a/docs/CareConnect-Composition-1.xlsx
+++ b/docs/CareConnect-Composition-1.xlsx
@@ -1435,11 +1435,11 @@
     <col min="2" max="2" width="24.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1452,19 +1452,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="44.18359375" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Composition-1.xlsx
+++ b/docs/CareConnect-Composition-1.xlsx
@@ -1435,11 +1435,11 @@
     <col min="2" max="2" width="24.171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="84.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1452,19 +1452,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="44.18359375" customWidth="true" bestFit="true"/>
